--- a/fourPolar-io/src/test/resources/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/OneCamera/TemplateOneCamera-Channel2.xlsx
+++ b/fourPolar-io/src/test/resources/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/OneCamera/TemplateOneCamera-Channel2.xlsx
@@ -31,16 +31,16 @@
     <t xml:space="preserve">Pol0_45_90_135</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/OneCamera/Img1_C2.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/OneCamera/Img2_C2.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/OneCamera/Img3_C2.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/OneCamera/Img4_C2.tif</t>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/OneCamera/Img1_C2.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/OneCamera/Img2_C2.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/OneCamera/Img3_C2.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/OneCamera/Img4_C2.tif</t>
   </si>
 </sst>
 </file>
@@ -144,10 +144,10 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.59"/>
   </cols>
